--- a/data/Subset1_WithDialogActs/Martino Fraction Equivalence 2_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Martino Fraction Equivalence 2_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4049,12 +4049,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4199,12 +4199,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
